--- a/database/Database.xlsx
+++ b/database/Database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="124">
   <si>
     <t>Id</t>
   </si>
@@ -352,6 +352,54 @@
   </si>
   <si>
     <t>2024-12-23T02:42:26.00Z</t>
+  </si>
+  <si>
+    <t>2024-12-26T17:14:37Z</t>
+  </si>
+  <si>
+    <t>20241226190741010003G0007777843</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>2024-12-26T09:14:37.15Z</t>
+  </si>
+  <si>
+    <t>20241226C0000000</t>
+  </si>
+  <si>
+    <t>0.58641810</t>
+  </si>
+  <si>
+    <t>2024-12-27T18:52:53Z</t>
+  </si>
+  <si>
+    <t>2024-12-28T00:24:29Z</t>
+  </si>
+  <si>
+    <t>2024-12-28T00:25:05Z</t>
+  </si>
+  <si>
+    <t>20241227190741010001F0007787855</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>4544</t>
+  </si>
+  <si>
+    <t>2024-12-27T16:25:05.29Z</t>
+  </si>
+  <si>
+    <t>20241227C0000000</t>
+  </si>
+  <si>
+    <t>USD/MYR</t>
+  </si>
+  <si>
+    <t>4.54446915</t>
   </si>
 </sst>
 </file>
@@ -748,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.0000013211E8</v>
+        <v>1.0000010981E8</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B96D996-2561-4826-96B8-760C91C3190F}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1765,6 +1813,180 @@
         <v>48</v>
       </c>
       <c r="S25" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>-5.86</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="N26" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="O26" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="P26" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="Q26" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="R26" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S26" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I27" s="0"/>
+      <c r="N27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I28" s="0"/>
+      <c r="N28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>-45.44</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L29" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M29" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="N29" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="O29" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="P29" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="Q29" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="R29" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S29" t="s" s="0">
         <v>49</v>
       </c>
     </row>

--- a/database/Database.xlsx
+++ b/database/Database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="173">
   <si>
     <t>Id</t>
   </si>
@@ -400,6 +400,153 @@
   </si>
   <si>
     <t>4.54446915</t>
+  </si>
+  <si>
+    <t>2024-12-30T04:46:02Z</t>
+  </si>
+  <si>
+    <t>20241229190741010005G0007820379</t>
+  </si>
+  <si>
+    <t>3340</t>
+  </si>
+  <si>
+    <t>2024-12-29T20:46:02.34Z</t>
+  </si>
+  <si>
+    <t>20241229C0000000</t>
+  </si>
+  <si>
+    <t>3.33997110</t>
+  </si>
+  <si>
+    <t>2024-12-30T10:02:48Z</t>
+  </si>
+  <si>
+    <t>20241230190741010009E0007815109</t>
+  </si>
+  <si>
+    <t>2024-12-30T02:02:48.24Z</t>
+  </si>
+  <si>
+    <t>20241230C0000000</t>
+  </si>
+  <si>
+    <t>2024-12-30T11:38:48Z</t>
+  </si>
+  <si>
+    <t>20241230190741010008E0007822725</t>
+  </si>
+  <si>
+    <t>2024-12-30T03:38:48.52Z</t>
+  </si>
+  <si>
+    <t>2024-12-30T17:22:21Z</t>
+  </si>
+  <si>
+    <t>20241230190741010005D0007799997</t>
+  </si>
+  <si>
+    <t>2024-12-30T09:22:21.70Z</t>
+  </si>
+  <si>
+    <t>2024-12-30T17:38:11Z</t>
+  </si>
+  <si>
+    <t>2024-12-30T17:38:39Z</t>
+  </si>
+  <si>
+    <t>20241230190741010004E0007813099</t>
+  </si>
+  <si>
+    <t>2024-12-30T09:38:39.95Z</t>
+  </si>
+  <si>
+    <t>2024-12-30T17:45:21Z</t>
+  </si>
+  <si>
+    <t>20241230190741010004J0007811228</t>
+  </si>
+  <si>
+    <t>2024-12-30T09:45:21.52Z</t>
+  </si>
+  <si>
+    <t>2025-01-03T17:44:05Z</t>
+  </si>
+  <si>
+    <t>2025-01-06T10:14:48Z</t>
+  </si>
+  <si>
+    <t>2025-01-06T10:15:34Z</t>
+  </si>
+  <si>
+    <t>20250106190741010005F0007860012</t>
+  </si>
+  <si>
+    <t>3327</t>
+  </si>
+  <si>
+    <t>2025-01-06T02:15:34.78Z</t>
+  </si>
+  <si>
+    <t>20250106C0000000</t>
+  </si>
+  <si>
+    <t>3.32662635</t>
+  </si>
+  <si>
+    <t>2025-01-06T10:30:21Z</t>
+  </si>
+  <si>
+    <t>2025-01-06T10:30:40Z</t>
+  </si>
+  <si>
+    <t>20250106190741010001A0007856558</t>
+  </si>
+  <si>
+    <t>2025-01-06T02:30:40.44Z</t>
+  </si>
+  <si>
+    <t>2025-01-09T09:43:20Z</t>
+  </si>
+  <si>
+    <t>2025-01-09T09:44:07Z</t>
+  </si>
+  <si>
+    <t>20250109190741010004H0007882127</t>
+  </si>
+  <si>
+    <t>4562</t>
+  </si>
+  <si>
+    <t>2025-01-09T01:44:07.03Z</t>
+  </si>
+  <si>
+    <t>20250109C0000000</t>
+  </si>
+  <si>
+    <t>4.56233076</t>
+  </si>
+  <si>
+    <t>2025-01-09T12:41:53Z</t>
+  </si>
+  <si>
+    <t>20250109190741010006H0007880195</t>
+  </si>
+  <si>
+    <t>2025-01-09T04:41:53.34Z</t>
+  </si>
+  <si>
+    <t>2025-01-09T12:55:51Z</t>
+  </si>
+  <si>
+    <t>2025-01-09T12:56:15Z</t>
+  </si>
+  <si>
+    <t>20250109190741010002J0007899297</t>
+  </si>
+  <si>
+    <t>2025-01-09T04:56:15.83Z</t>
   </si>
 </sst>
 </file>
@@ -768,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>518.11</v>
+        <v>364.71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -796,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.0000010981E8</v>
+        <v>1.0000001533E8</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +954,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B96D996-2561-4826-96B8-760C91C3190F}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1987,6 +2134,823 @@
         <v>48</v>
       </c>
       <c r="S29" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>-33.4</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L30" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M30" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="N30" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="O30" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="P30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="Q30" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="R30" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S30" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>-33.4</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L31" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M31" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="N31" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="O31" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="P31" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="Q31" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="R31" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S31" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>-45.44</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M32" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="N32" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="O32" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="P32" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="Q32" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="R32" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S32" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>-33.4</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L33" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M33" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="N33" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="O33" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="P33" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="Q33" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="R33" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S33" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I34" s="0"/>
+      <c r="N34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>-33.4</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L35" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M35" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="N35" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="O35" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="P35" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="Q35" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="R35" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S35" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>-45.44</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L36" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M36" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="N36" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="O36" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="P36" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="Q36" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="R36" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S36" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I37" s="0"/>
+      <c r="N37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I38" s="0"/>
+      <c r="N38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>-33.27</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L39" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M39" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="N39" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="O39" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="P39" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="Q39" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="R39" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S39" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I40" s="0"/>
+      <c r="N40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>-33.27</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L41" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M41" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="N41" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="O41" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="P41" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="Q41" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="R41" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S41" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I42" s="0"/>
+      <c r="N42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>-45.62</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L43" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M43" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="N43" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="O43" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="P43" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="Q43" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="R43" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S43" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>-45.62</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L44" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M44" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="N44" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="O44" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="P44" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="Q44" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="R44" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S44" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I45" s="0"/>
+      <c r="N45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>-45.62</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L46" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M46" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="N46" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="O46" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="P46" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="Q46" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="R46" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S46" t="s" s="0">
         <v>49</v>
       </c>
     </row>
